--- a/data/excel/cpi1996.xlsx
+++ b/data/excel/cpi1996.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
   <si>
     <t>Rank</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1201,7 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1211,11 @@
       <c r="C1" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1219,8 +1225,11 @@
       <c r="C2" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1230,8 +1239,11 @@
       <c r="C3" s="3">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1241,8 +1253,11 @@
       <c r="C4" s="3">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1252,8 +1267,11 @@
       <c r="C5" s="3">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1263,8 +1281,11 @@
       <c r="C6" s="3">
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1274,8 +1295,11 @@
       <c r="C7" s="3">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1285,8 +1309,11 @@
       <c r="C8" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1296,8 +1323,11 @@
       <c r="C9" s="3">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1307,8 +1337,11 @@
       <c r="C10" s="3">
         <v>8.7100000000000009</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1318,8 +1351,11 @@
       <c r="C11" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1329,8 +1365,11 @@
       <c r="C12" s="3">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1340,8 +1379,11 @@
       <c r="C13" s="3">
         <v>8.44</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1351,8 +1393,11 @@
       <c r="C14" s="3">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1362,8 +1407,11 @@
       <c r="C15" s="3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1373,8 +1421,11 @@
       <c r="C16" s="3">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1384,8 +1435,11 @@
       <c r="C17" s="3">
         <v>7.59</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1395,8 +1449,11 @@
       <c r="C18">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1406,8 +1463,11 @@
       <c r="C19">
         <v>7.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1417,8 +1477,11 @@
       <c r="C20">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1428,8 +1491,11 @@
       <c r="C21">
         <v>6.84</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1439,8 +1505,11 @@
       <c r="C22">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1450,8 +1519,11 @@
       <c r="C23">
         <v>6.53</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1461,8 +1533,11 @@
       <c r="C24">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1472,8 +1547,11 @@
       <c r="C25">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1483,8 +1561,11 @@
       <c r="C26">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1494,8 +1575,11 @@
       <c r="C27">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1505,8 +1589,11 @@
       <c r="C28">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1516,8 +1603,11 @@
       <c r="C29">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1527,8 +1617,11 @@
       <c r="C30">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1538,8 +1631,11 @@
       <c r="C31">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1549,8 +1645,11 @@
       <c r="C32">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1560,8 +1659,11 @@
       <c r="C33">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1571,8 +1673,11 @@
       <c r="C34">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1582,8 +1687,11 @@
       <c r="C35">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1593,8 +1701,11 @@
       <c r="C36">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1604,8 +1715,11 @@
       <c r="C37">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1615,8 +1729,11 @@
       <c r="C38">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1626,8 +1743,11 @@
       <c r="C39">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1637,8 +1757,11 @@
       <c r="C40">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1648,8 +1771,11 @@
       <c r="C41">
         <v>2.96</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1659,8 +1785,11 @@
       <c r="C42">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1670,8 +1799,11 @@
       <c r="C43">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1681,8 +1813,11 @@
       <c r="C44">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1692,8 +1827,11 @@
       <c r="C45">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1703,8 +1841,11 @@
       <c r="C46">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1714,8 +1855,11 @@
       <c r="C47">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1725,8 +1869,11 @@
       <c r="C48">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1736,8 +1883,11 @@
       <c r="C49">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1747,8 +1897,11 @@
       <c r="C50">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1758,8 +1911,11 @@
       <c r="C51">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1769,8 +1925,11 @@
       <c r="C52">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1780,8 +1939,11 @@
       <c r="C53">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1791,8 +1953,11 @@
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1801,6 +1966,9 @@
       </c>
       <c r="C55">
         <v>0.69</v>
+      </c>
+      <c r="D55">
+        <v>1996</v>
       </c>
     </row>
   </sheetData>
